--- a/lib/xls_templates/service_areas/2017/SHOP_SA_HPHC.xlsx
+++ b/lib/xls_templates/service_areas/2017/SHOP_SA_HPHC.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>2017 Service Area v6.0</t>
   </si>
@@ -289,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#####"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,12 +369,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -496,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -588,38 +582,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,11 +609,6 @@
       <sheetName val="Service Areas"/>
       <sheetName val="county"/>
     </sheetNames>
-    <definedNames>
-      <definedName name="createServiceArea"/>
-      <definedName name="Finalize"/>
-      <definedName name="Validate"/>
-    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
@@ -1219,11 +1176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491B87E-8B5D-624F-B743-E4282C46B2D7}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491B87E-8B5D-624F-B743-E4282C46B2D7}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,140 +1367,31 @@
       </c>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="41"/>
-    </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select County from List" promptTitle="Required if State is No" prompt="Select the County-FIPS from List" sqref="D13:D23" xr:uid="{C1DDC33C-CF37-A441-9E47-97BA670E1185}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select County from List" promptTitle="Required if State is No" prompt="Select the County-FIPS from List" sqref="D13" xr:uid="{C1DDC33C-CF37-A441-9E47-97BA670E1185}">
       <formula1>MA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid:" error="Select Yes or No from List" promptTitle="Required if State is No:" prompt="Select No if this Service Area covers the Entire county" sqref="E13:E23" xr:uid="{5CA654FF-4B87-FC4B-8007-A28E4C7ED98D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid:" error="Select Yes or No from List" promptTitle="Required if State is No:" prompt="Select No if this Service Area covers the Entire county" sqref="E13" xr:uid="{5CA654FF-4B87-FC4B-8007-A28E4C7ED98D}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select from list" promptTitle="Required:" prompt="Select the Service Area ID" sqref="A13:A23" xr:uid="{71C9F411-3B1E-E747-B179-2A7FCF7F98E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select from list" promptTitle="Required:" prompt="Select the Service Area ID" sqref="A13" xr:uid="{71C9F411-3B1E-E747-B179-2A7FCF7F98E6}">
       <formula1>Service</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No from List" promptTitle="Required:" prompt="Select &quot;Yes&quot; if this Service Area covers the entire state" sqref="C13:C23" xr:uid="{E8F804FC-C4AD-3741-B270-0A8DAA39A9A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No from List" promptTitle="Required:" prompt="Select &quot;Yes&quot; if this Service Area covers the entire state" sqref="C13" xr:uid="{E8F804FC-C4AD-3741-B270-0A8DAA39A9A8}">
       <formula1>YesNo</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Enter a 5-digit Issuer ID" promptTitle="Required:" prompt="Enter the Issuer ID" sqref="B6" xr:uid="{F8337795-EA6B-7449-A50E-C63F5723B1F3}">
       <formula1>AND(ISNUMBER($B$6),LEN($B$6)=5)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for Partial County, you are required to enter the inclusive 5-digit zip code list seperated by commas here." sqref="F13:F23" xr:uid="{F05B321E-A8B9-534B-8E47-CF27EC6E5FDF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for 'Partial County' then you are required to enter a Justification of why all the zip codes are not included in this service area." sqref="G13:G23" xr:uid="{AC232FED-16E5-ED43-8A31-A601B3A878C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for Partial County, you are required to enter the inclusive 5-digit zip code list seperated by commas here." sqref="F13" xr:uid="{F05B321E-A8B9-534B-8E47-CF27EC6E5FDF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for 'Partial County' then you are required to enter a Justification of why all the zip codes are not included in this service area." sqref="G13" xr:uid="{AC232FED-16E5-ED43-8A31-A601B3A878C0}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select State from list" promptTitle="Required:" prompt="Select State from List" sqref="B7" xr:uid="{43323BB6-0BAA-6346-9E26-3F701836DA0E}">
       <formula1>States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required:" prompt="Enter the Service Area Name" sqref="B13:B23" xr:uid="{428A2031-0DBE-BC4E-A166-218B2C557B75}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required:" prompt="Enter the Service Area Name" sqref="B13" xr:uid="{428A2031-0DBE-BC4E-A166-218B2C557B75}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>